--- a/Sprint#5/pruebas individuales Oscar/Log_pruebas_individuales_RF-45.xlsx
+++ b/Sprint#5/pruebas individuales Oscar/Log_pruebas_individuales_RF-45.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RF 33" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
     <t>Oscar Alvarado Gutiérrez</t>
   </si>
   <si>
-    <t>No aplica</t>
+    <t>esta en las hojas de pruebas</t>
   </si>
 </sst>
 </file>
@@ -794,6 +794,44 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>569619</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15047619" cy="7780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1114,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
